--- a/src/main/resources/raw/mutasi.xlsx
+++ b/src/main/resources/raw/mutasi.xlsx
@@ -11,13 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MUTASI!$A$1:$Q$23</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">MUTASI!$11:$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>PEMERINTAH KABUPATEN MINAHASA UTARA</t>
   </si>
@@ -146,6 +147,9 @@
   </si>
   <si>
     <t>$_JM_XLS_Detail_24</t>
+  </si>
+  <si>
+    <t>JUMLAH (Rp)</t>
   </si>
 </sst>
 </file>
@@ -408,7 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -439,29 +442,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -485,15 +467,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -504,6 +509,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -863,8 +869,11 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="12" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,466 +884,474 @@
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
       <c r="T1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
       <c r="T2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
       <c r="T3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="38"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19" t="s">
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="3" t="s">
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="Q12" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f>ROW(A13)-12</f>
         <v>1</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="5" t="e">
+      <c r="Q13" s="4" t="e">
         <f>H13+K13-N13</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="14">
+    <row r="14" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="13">
         <f ca="1">SUM(INDIRECT("H13:H"&amp;ROW(H14)-1))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="14">
+      <c r="I14" s="12"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="13">
         <f ca="1">SUM(INDIRECT("K13:K"&amp;ROW(K14)-1))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="14">
+      <c r="L14" s="12"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="13">
         <f ca="1">SUM(INDIRECT("N13:N"&amp;ROW(N14)-1))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="14" t="e">
+      <c r="O14" s="12"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="13" t="e">
         <f ca="1">SUM(INDIRECT("Q13:Q"&amp;ROW(Q14)-1))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O16" s="9" t="str">
+      <c r="O16" s="8" t="str">
         <f>"Airmadidi, "&amp;T1</f>
         <v>Airmadidi, $_JM_XLS_Master_DB_2</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="11" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="9" t="str">
+      <c r="D23" s="8" t="str">
         <f>"NIP. "&amp;T3</f>
         <v>NIP. $_JM_XLS_Master_DB_12</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="O23" s="9" t="str">
+      <c r="E23" s="8"/>
+      <c r="O23" s="8" t="str">
         <f>"NIP. "&amp;T2</f>
         <v>NIP. $_JM_XLS_Master_DB_15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:Q1"/>
@@ -1346,17 +1363,9 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="14" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>